--- a/medicine/Mort/Liste_des_écrivains_morts_pour_la_France/Liste_des_écrivains_morts_pour_la_France.xlsx
+++ b/medicine/Mort/Liste_des_écrivains_morts_pour_la_France/Liste_des_écrivains_morts_pour_la_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9crivains_morts_pour_la_France</t>
+          <t>Liste_des_écrivains_morts_pour_la_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste regroupe une partie des 757 écrivains officiellement déclarés[1] « morts pour la France » (560 au titre du premier conflit mondial ; 197 au titre du deuxième).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste regroupe une partie des 757 écrivains officiellement déclarés « morts pour la France » (560 au titre du premier conflit mondial ; 197 au titre du deuxième).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9crivains_morts_pour_la_France</t>
+          <t>Liste_des_écrivains_morts_pour_la_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9crivains_morts_pour_la_France</t>
+          <t>Liste_des_écrivains_morts_pour_la_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs hommages sont rendus spécifiquement à ces écrivains, parmi lesquels :
 l'inauguration, le 15 octobre 1927, par Gaston Doumergue, Président de la République, de plaques de marbre au Panthéon de Paris, recensant les noms des 560 écrivains morts au titre de la Grande guerre ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9crivains_morts_pour_la_France</t>
+          <t>Liste_des_écrivains_morts_pour_la_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Délai de protection du droit d'auteur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la durée de protection des œuvres des auteurs morts pour la patrie est augmentée de 30 ans, en sus des prorogations de guerre éventuelles. La durée de protection est de :
 80 ans pour les œuvres publiées à partir du 1er janvier 1948 ;
